--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,49 +22,73 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>515150</t>
+  </si>
+  <si>
     <t>515110</t>
   </si>
   <si>
-    <t>515150</t>
-  </si>
-  <si>
     <t>515990</t>
   </si>
   <si>
+    <t>富国中证国企一带一路ETF</t>
+  </si>
+  <si>
     <t>易方达中证国企一带一路ETF</t>
   </si>
   <si>
-    <t>富国中证国企一带一路ETF</t>
-  </si>
-  <si>
     <t>汇添富中证国企一带一路ETF</t>
   </si>
   <si>
+    <t>22.34</t>
+  </si>
+  <si>
+    <t>12.24</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>99.67</t>
+  </si>
+  <si>
     <t>98.83</t>
   </si>
   <si>
-    <t>99.67</t>
-  </si>
-  <si>
     <t>96.96</t>
   </si>
   <si>
+    <t>1.66</t>
+  </si>
+  <si>
     <t>1.59</t>
   </si>
   <si>
-    <t>1.66</t>
-  </si>
-  <si>
     <t>1.50</t>
+  </si>
+  <si>
+    <t>0.3708</t>
+  </si>
+  <si>
+    <t>0.1946</t>
+  </si>
+  <si>
+    <t>0.0908</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,64 +468,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>515150</t>
-  </si>
-  <si>
-    <t>515110</t>
-  </si>
-  <si>
-    <t>515990</t>
-  </si>
-  <si>
-    <t>富国中证国企一带一路ETF</t>
-  </si>
-  <si>
-    <t>易方达中证国企一带一路ETF</t>
-  </si>
-  <si>
-    <t>汇添富中证国企一带一路ETF</t>
-  </si>
-  <si>
-    <t>22.34</t>
-  </si>
-  <si>
-    <t>12.24</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>99.67</t>
-  </si>
-  <si>
-    <t>98.83</t>
-  </si>
-  <si>
-    <t>96.96</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>0.3708</t>
-  </si>
-  <si>
-    <t>0.1946</t>
-  </si>
-  <si>
-    <t>0.0908</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +920,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.15</v>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.15</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -566,6 +583,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -887,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1455,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1663,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
+++ b/数据整理/stocks/A股/上证主板/603927-中科软.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.15</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1018,7 +1851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1908,7 +2741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
